--- a/data/source/recent/lasd_compstat.xlsx
+++ b/data/source/recent/lasd_compstat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Jarvis/R/safetytracker_losangeles/data/source/recent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541AD4C5-AFE1-6745-9FB8-64AE79697199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9979FD89-92CF-FF4C-A83F-4D9E5C23475A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36360" yWindow="500" windowWidth="18340" windowHeight="17420" xr2:uid="{62D3A5B9-DFAB-2342-B627-2572A7BF831A}"/>
+    <workbookView xWindow="39100" yWindow="4440" windowWidth="18340" windowHeight="17420" xr2:uid="{62D3A5B9-DFAB-2342-B627-2572A7BF831A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>Malibu/Lost Hills</t>
   </si>
   <si>
-    <t>Marina del Ray</t>
-  </si>
-  <si>
     <t>Norwalk</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>Walnut/Diamond Bar</t>
+  </si>
+  <si>
+    <t>Marina Del Rey</t>
   </si>
 </sst>
 </file>
@@ -510,8 +510,8 @@
   <dimension ref="A1:H169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B146" sqref="B146"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,33 +523,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
       <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
       <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
         <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s">
         <v>13</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B54" t="s">
         <v>14</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B72" t="s">
         <v>17</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B73" t="s">
         <v>17</v>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B74" t="s">
         <v>17</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B75" t="s">
         <v>17</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B76" t="s">
         <v>17</v>
@@ -2499,7 +2499,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B77" t="s">
         <v>17</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B78" t="s">
         <v>17</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B79" t="s">
         <v>18</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B80" t="s">
         <v>18</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B81" t="s">
         <v>18</v>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B82" t="s">
         <v>18</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B83" t="s">
         <v>18</v>
@@ -2681,7 +2681,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B84" t="s">
         <v>18</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B85" t="s">
         <v>18</v>
@@ -2733,7 +2733,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B86" t="s">
         <v>19</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B87" t="s">
         <v>19</v>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B88" t="s">
         <v>19</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B89" t="s">
         <v>19</v>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B90" t="s">
         <v>19</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B91" t="s">
         <v>19</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B92" t="s">
         <v>19</v>
@@ -2915,10 +2915,10 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
@@ -2941,10 +2941,10 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C94" t="s">
         <v>3</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B95" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C95" t="s">
         <v>4</v>
@@ -2993,10 +2993,10 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3019,10 +3019,10 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B97" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
@@ -3045,10 +3045,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
@@ -3071,10 +3071,10 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B99" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C99" t="s">
         <v>8</v>
@@ -3097,10 +3097,10 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B100" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
@@ -3123,10 +3123,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B101" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C101" t="s">
         <v>3</v>
@@ -3149,10 +3149,10 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C102" t="s">
         <v>4</v>
@@ -3175,10 +3175,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B103" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3201,10 +3201,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B104" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C104" t="s">
         <v>6</v>
@@ -3227,10 +3227,10 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B105" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C105" t="s">
         <v>7</v>
@@ -3253,10 +3253,10 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B106" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C106" t="s">
         <v>8</v>
@@ -3279,10 +3279,10 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B107" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C107" t="s">
         <v>2</v>
@@ -3305,10 +3305,10 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C108" t="s">
         <v>3</v>
@@ -3331,10 +3331,10 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B109" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C109" t="s">
         <v>4</v>
@@ -3357,10 +3357,10 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3383,10 +3383,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B111" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C111" t="s">
         <v>6</v>
@@ -3409,10 +3409,10 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B112" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
@@ -3435,10 +3435,10 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B113" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C113" t="s">
         <v>8</v>
@@ -3461,10 +3461,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C114" t="s">
         <v>2</v>
@@ -3487,10 +3487,10 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C115" t="s">
         <v>3</v>
@@ -3513,10 +3513,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C116" t="s">
         <v>4</v>
@@ -3539,10 +3539,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B117" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3565,10 +3565,10 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B118" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
@@ -3591,10 +3591,10 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
@@ -3617,10 +3617,10 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B120" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C120" t="s">
         <v>8</v>
@@ -3643,10 +3643,10 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C121" t="s">
         <v>2</v>
@@ -3669,10 +3669,10 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C122" t="s">
         <v>3</v>
@@ -3695,10 +3695,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B123" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C123" t="s">
         <v>4</v>
@@ -3721,10 +3721,10 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3747,10 +3747,10 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C125" t="s">
         <v>6</v>
@@ -3773,10 +3773,10 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
@@ -3799,10 +3799,10 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C127" t="s">
         <v>8</v>
@@ -3825,10 +3825,10 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B128" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C128" t="s">
         <v>2</v>
@@ -3851,10 +3851,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C129" t="s">
         <v>3</v>
@@ -3877,10 +3877,10 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B130" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C130" t="s">
         <v>4</v>
@@ -3903,10 +3903,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B131" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3929,10 +3929,10 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B132" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C132" t="s">
         <v>6</v>
@@ -3955,10 +3955,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B133" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
@@ -3981,10 +3981,10 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B134" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C134" t="s">
         <v>8</v>
@@ -4007,10 +4007,10 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B135" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C135" t="s">
         <v>2</v>
@@ -4033,10 +4033,10 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B136" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C136" t="s">
         <v>3</v>
@@ -4059,10 +4059,10 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B137" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C137" t="s">
         <v>4</v>
@@ -4085,10 +4085,10 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B138" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -4111,10 +4111,10 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B139" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C139" t="s">
         <v>6</v>
@@ -4137,10 +4137,10 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B140" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
@@ -4163,10 +4163,10 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B141" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C141" t="s">
         <v>8</v>
@@ -4189,10 +4189,10 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B142" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C142" t="s">
         <v>2</v>
@@ -4215,10 +4215,10 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B143" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C143" t="s">
         <v>3</v>
@@ -4241,10 +4241,10 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B144" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C144" t="s">
         <v>4</v>
@@ -4267,10 +4267,10 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B145" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4293,10 +4293,10 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B146" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C146" t="s">
         <v>6</v>
@@ -4319,10 +4319,10 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B147" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C147" t="s">
         <v>7</v>
@@ -4345,10 +4345,10 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B148" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C148" t="s">
         <v>8</v>
@@ -4371,10 +4371,10 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B149" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C149" t="s">
         <v>2</v>
@@ -4397,10 +4397,10 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C150" t="s">
         <v>3</v>
@@ -4423,10 +4423,10 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C151" t="s">
         <v>4</v>
@@ -4449,10 +4449,10 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4475,10 +4475,10 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B153" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C153" t="s">
         <v>6</v>
@@ -4501,10 +4501,10 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B154" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C154" t="s">
         <v>7</v>
@@ -4527,10 +4527,10 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B155" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C155" t="s">
         <v>8</v>
@@ -4553,10 +4553,10 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B156" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C156" t="s">
         <v>2</v>
@@ -4579,10 +4579,10 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B157" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C157" t="s">
         <v>3</v>
@@ -4605,10 +4605,10 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B158" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C158" t="s">
         <v>4</v>
@@ -4631,10 +4631,10 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B159" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4657,10 +4657,10 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B160" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C160" t="s">
         <v>6</v>
@@ -4683,10 +4683,10 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B161" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C161" t="s">
         <v>7</v>
@@ -4709,10 +4709,10 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B162" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C162" t="s">
         <v>8</v>
@@ -4735,10 +4735,10 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>36</v>
+      </c>
+      <c r="B163" t="s">
         <v>37</v>
-      </c>
-      <c r="B163" t="s">
-        <v>38</v>
       </c>
       <c r="C163" t="s">
         <v>2</v>
@@ -4761,10 +4761,10 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>36</v>
+      </c>
+      <c r="B164" t="s">
         <v>37</v>
-      </c>
-      <c r="B164" t="s">
-        <v>38</v>
       </c>
       <c r="C164" t="s">
         <v>3</v>
@@ -4787,10 +4787,10 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>36</v>
+      </c>
+      <c r="B165" t="s">
         <v>37</v>
-      </c>
-      <c r="B165" t="s">
-        <v>38</v>
       </c>
       <c r="C165" t="s">
         <v>4</v>
@@ -4813,10 +4813,10 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
+        <v>36</v>
+      </c>
+      <c r="B166" t="s">
         <v>37</v>
-      </c>
-      <c r="B166" t="s">
-        <v>38</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4839,10 +4839,10 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>36</v>
+      </c>
+      <c r="B167" t="s">
         <v>37</v>
-      </c>
-      <c r="B167" t="s">
-        <v>38</v>
       </c>
       <c r="C167" t="s">
         <v>6</v>
@@ -4865,10 +4865,10 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>36</v>
+      </c>
+      <c r="B168" t="s">
         <v>37</v>
-      </c>
-      <c r="B168" t="s">
-        <v>38</v>
       </c>
       <c r="C168" t="s">
         <v>7</v>
@@ -4891,10 +4891,10 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>36</v>
+      </c>
+      <c r="B169" t="s">
         <v>37</v>
-      </c>
-      <c r="B169" t="s">
-        <v>38</v>
       </c>
       <c r="C169" t="s">
         <v>8</v>

--- a/data/source/recent/lasd_compstat.xlsx
+++ b/data/source/recent/lasd_compstat.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Jarvis/R/safetytracker_losangeles/data/source/recent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9979FD89-92CF-FF4C-A83F-4D9E5C23475A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9020C8-9CE6-BC42-845D-9E6FF2384887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39100" yWindow="4440" windowWidth="18340" windowHeight="17420" xr2:uid="{62D3A5B9-DFAB-2342-B627-2572A7BF831A}"/>
+    <workbookView xWindow="37580" yWindow="940" windowWidth="23620" windowHeight="17820" activeTab="1" xr2:uid="{62D3A5B9-DFAB-2342-B627-2572A7BF831A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Detail" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="45">
   <si>
     <t>Altadena</t>
   </si>
@@ -157,6 +158,21 @@
   <si>
     <t>Marina Del Rey</t>
   </si>
+  <si>
+    <t>Unincorporated</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Lynnwood</t>
+  </si>
+  <si>
+    <t>La Canada-Flintridge</t>
+  </si>
 </sst>
 </file>
 
@@ -191,8 +207,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,9 +526,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6788CCE-A72F-744F-959A-F26CCF8E85C5}">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4918,4 +4935,5163 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7917B61E-DBAE-9C4A-954D-E4E2EC05C1EF}">
+  <dimension ref="A1:I204"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="3" width="21.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="1" customWidth="1"/>
+    <col min="5" max="9" width="10.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>88</v>
+      </c>
+      <c r="F5" s="1">
+        <v>67</v>
+      </c>
+      <c r="G5" s="1">
+        <v>71</v>
+      </c>
+      <c r="H5" s="1">
+        <v>60</v>
+      </c>
+      <c r="I5" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>114</v>
+      </c>
+      <c r="F6" s="1">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1">
+        <v>61</v>
+      </c>
+      <c r="H6" s="1">
+        <v>53</v>
+      </c>
+      <c r="I6" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>373</v>
+      </c>
+      <c r="F7" s="1">
+        <v>283</v>
+      </c>
+      <c r="G7" s="1">
+        <v>310</v>
+      </c>
+      <c r="H7" s="1">
+        <v>243</v>
+      </c>
+      <c r="I7" s="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1">
+        <v>65</v>
+      </c>
+      <c r="G8" s="1">
+        <v>58</v>
+      </c>
+      <c r="H8" s="1">
+        <v>51</v>
+      </c>
+      <c r="I8" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>23</v>
+      </c>
+      <c r="H12" s="1">
+        <v>23</v>
+      </c>
+      <c r="I12" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1">
+        <v>38</v>
+      </c>
+      <c r="G14" s="1">
+        <v>32</v>
+      </c>
+      <c r="H14" s="1">
+        <v>31</v>
+      </c>
+      <c r="I14" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>8</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10</v>
+      </c>
+      <c r="G23" s="1">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1">
+        <v>12</v>
+      </c>
+      <c r="I23" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>39</v>
+      </c>
+      <c r="F24" s="1">
+        <v>27</v>
+      </c>
+      <c r="G24" s="1">
+        <v>21</v>
+      </c>
+      <c r="H24" s="1">
+        <v>17</v>
+      </c>
+      <c r="I24" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>158</v>
+      </c>
+      <c r="F25" s="1">
+        <v>129</v>
+      </c>
+      <c r="G25" s="1">
+        <v>146</v>
+      </c>
+      <c r="H25" s="1">
+        <v>120</v>
+      </c>
+      <c r="I25" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>358</v>
+      </c>
+      <c r="F26" s="1">
+        <v>350</v>
+      </c>
+      <c r="G26" s="1">
+        <v>283</v>
+      </c>
+      <c r="H26" s="1">
+        <v>240</v>
+      </c>
+      <c r="I26" s="1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1">
+        <v>466</v>
+      </c>
+      <c r="F27" s="1">
+        <v>370</v>
+      </c>
+      <c r="G27" s="1">
+        <v>365</v>
+      </c>
+      <c r="H27" s="1">
+        <v>290</v>
+      </c>
+      <c r="I27" s="1">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1682</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1673</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1791</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1472</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1">
+        <v>566</v>
+      </c>
+      <c r="F29" s="1">
+        <v>690</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1067</v>
+      </c>
+      <c r="H29" s="1">
+        <v>852</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>20</v>
+      </c>
+      <c r="F37" s="1">
+        <v>30</v>
+      </c>
+      <c r="G37" s="1">
+        <v>45</v>
+      </c>
+      <c r="H37" s="1">
+        <v>35</v>
+      </c>
+      <c r="I37" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1">
+        <v>65</v>
+      </c>
+      <c r="F38" s="1">
+        <v>50</v>
+      </c>
+      <c r="G38" s="1">
+        <v>67</v>
+      </c>
+      <c r="H38" s="1">
+        <v>56</v>
+      </c>
+      <c r="I38" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="1">
+        <v>684</v>
+      </c>
+      <c r="F39" s="1">
+        <v>546</v>
+      </c>
+      <c r="G39" s="1">
+        <v>481</v>
+      </c>
+      <c r="H39" s="1">
+        <v>391</v>
+      </c>
+      <c r="I39" s="1">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1">
+        <v>821</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1007</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1069</v>
+      </c>
+      <c r="H40" s="1">
+        <v>908</v>
+      </c>
+      <c r="I40" s="1">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="1">
+        <v>469</v>
+      </c>
+      <c r="F41" s="1">
+        <v>387</v>
+      </c>
+      <c r="G41" s="1">
+        <v>365</v>
+      </c>
+      <c r="H41" s="1">
+        <v>291</v>
+      </c>
+      <c r="I41" s="1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1831</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1750</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1552</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1285</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1253</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1661</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2052</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1716</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>20</v>
+      </c>
+      <c r="F44" s="1">
+        <v>30</v>
+      </c>
+      <c r="G44" s="1">
+        <v>45</v>
+      </c>
+      <c r="H44" s="1">
+        <v>35</v>
+      </c>
+      <c r="I44" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>65</v>
+      </c>
+      <c r="F45" s="1">
+        <v>50</v>
+      </c>
+      <c r="G45" s="1">
+        <v>67</v>
+      </c>
+      <c r="H45" s="1">
+        <v>56</v>
+      </c>
+      <c r="I45" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="1">
+        <v>684</v>
+      </c>
+      <c r="F46" s="1">
+        <v>546</v>
+      </c>
+      <c r="G46" s="1">
+        <v>481</v>
+      </c>
+      <c r="H46" s="1">
+        <v>391</v>
+      </c>
+      <c r="I46" s="1">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="1">
+        <v>821</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1007</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1069</v>
+      </c>
+      <c r="H47" s="1">
+        <v>908</v>
+      </c>
+      <c r="I47" s="1">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1">
+        <v>469</v>
+      </c>
+      <c r="F48" s="1">
+        <v>387</v>
+      </c>
+      <c r="G48" s="1">
+        <v>365</v>
+      </c>
+      <c r="H48" s="1">
+        <v>291</v>
+      </c>
+      <c r="I48" s="1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1831</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1750</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1552</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1285</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1253</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1661</v>
+      </c>
+      <c r="G50" s="1">
+        <v>2052</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1716</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1">
+        <v>10</v>
+      </c>
+      <c r="F52" s="1">
+        <v>14</v>
+      </c>
+      <c r="G52" s="1">
+        <v>10</v>
+      </c>
+      <c r="H52" s="1">
+        <v>7</v>
+      </c>
+      <c r="I52" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="1">
+        <v>65</v>
+      </c>
+      <c r="F53" s="1">
+        <v>39</v>
+      </c>
+      <c r="G53" s="1">
+        <v>56</v>
+      </c>
+      <c r="H53" s="1">
+        <v>46</v>
+      </c>
+      <c r="I53" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="1">
+        <v>51</v>
+      </c>
+      <c r="F54" s="1">
+        <v>47</v>
+      </c>
+      <c r="G54" s="1">
+        <v>66</v>
+      </c>
+      <c r="H54" s="1">
+        <v>52</v>
+      </c>
+      <c r="I54" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="1">
+        <v>314</v>
+      </c>
+      <c r="F55" s="1">
+        <v>246</v>
+      </c>
+      <c r="G55" s="1">
+        <v>250</v>
+      </c>
+      <c r="H55" s="1">
+        <v>207</v>
+      </c>
+      <c r="I55" s="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1198</v>
+      </c>
+      <c r="F56" s="1">
+        <v>970</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1235</v>
+      </c>
+      <c r="H56" s="1">
+        <v>984</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="1">
+        <v>122</v>
+      </c>
+      <c r="F57" s="1">
+        <v>146</v>
+      </c>
+      <c r="G57" s="1">
+        <v>277</v>
+      </c>
+      <c r="H57" s="1">
+        <v>217</v>
+      </c>
+      <c r="I57" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="1">
+        <v>21</v>
+      </c>
+      <c r="F58" s="1">
+        <v>26</v>
+      </c>
+      <c r="G58" s="1">
+        <v>45</v>
+      </c>
+      <c r="H58" s="1">
+        <v>39</v>
+      </c>
+      <c r="I58" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="1">
+        <v>47</v>
+      </c>
+      <c r="F59" s="1">
+        <v>61</v>
+      </c>
+      <c r="G59" s="1">
+        <v>44</v>
+      </c>
+      <c r="H59" s="1">
+        <v>36</v>
+      </c>
+      <c r="I59" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="1">
+        <v>496</v>
+      </c>
+      <c r="F60" s="1">
+        <v>350</v>
+      </c>
+      <c r="G60" s="1">
+        <v>296</v>
+      </c>
+      <c r="H60" s="1">
+        <v>239</v>
+      </c>
+      <c r="I60" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="1">
+        <v>762</v>
+      </c>
+      <c r="F61" s="1">
+        <v>948</v>
+      </c>
+      <c r="G61" s="1">
+        <v>801</v>
+      </c>
+      <c r="H61" s="1">
+        <v>685</v>
+      </c>
+      <c r="I61" s="1">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="1">
+        <v>423</v>
+      </c>
+      <c r="F62" s="1">
+        <v>316</v>
+      </c>
+      <c r="G62" s="1">
+        <v>240</v>
+      </c>
+      <c r="H62" s="1">
+        <v>195</v>
+      </c>
+      <c r="I62" s="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1496</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1403</v>
+      </c>
+      <c r="G63" s="1">
+        <v>940</v>
+      </c>
+      <c r="H63" s="1">
+        <v>776</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="1">
+        <v>904</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1058</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1418</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1187</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="1">
+        <v>5</v>
+      </c>
+      <c r="F80" s="1">
+        <v>6</v>
+      </c>
+      <c r="G80" s="1">
+        <v>4</v>
+      </c>
+      <c r="H80" s="1">
+        <v>4</v>
+      </c>
+      <c r="I80" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="1">
+        <v>12</v>
+      </c>
+      <c r="F81" s="1">
+        <v>5</v>
+      </c>
+      <c r="G81" s="1">
+        <v>4</v>
+      </c>
+      <c r="H81" s="1">
+        <v>3</v>
+      </c>
+      <c r="I81" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="1">
+        <v>17</v>
+      </c>
+      <c r="F82" s="1">
+        <v>14</v>
+      </c>
+      <c r="G82" s="1">
+        <v>37</v>
+      </c>
+      <c r="H82" s="1">
+        <v>30</v>
+      </c>
+      <c r="I82" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="1">
+        <v>143</v>
+      </c>
+      <c r="F83" s="1">
+        <v>96</v>
+      </c>
+      <c r="G83" s="1">
+        <v>89</v>
+      </c>
+      <c r="H83" s="1">
+        <v>72</v>
+      </c>
+      <c r="I83" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="1">
+        <v>349</v>
+      </c>
+      <c r="F84" s="1">
+        <v>321</v>
+      </c>
+      <c r="G84" s="1">
+        <v>428</v>
+      </c>
+      <c r="H84" s="1">
+        <v>345</v>
+      </c>
+      <c r="I84" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="1">
+        <v>20</v>
+      </c>
+      <c r="F85" s="1">
+        <v>35</v>
+      </c>
+      <c r="G85" s="1">
+        <v>39</v>
+      </c>
+      <c r="H85" s="1">
+        <v>35</v>
+      </c>
+      <c r="I85" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" s="1">
+        <v>11</v>
+      </c>
+      <c r="F86" s="1">
+        <v>28</v>
+      </c>
+      <c r="G86" s="1">
+        <v>30</v>
+      </c>
+      <c r="H86" s="1">
+        <v>27</v>
+      </c>
+      <c r="I86" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="1">
+        <v>40</v>
+      </c>
+      <c r="F87" s="1">
+        <v>33</v>
+      </c>
+      <c r="G87" s="1">
+        <v>57</v>
+      </c>
+      <c r="H87" s="1">
+        <v>49</v>
+      </c>
+      <c r="I87" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" s="1">
+        <v>327</v>
+      </c>
+      <c r="F88" s="1">
+        <v>344</v>
+      </c>
+      <c r="G88" s="1">
+        <v>264</v>
+      </c>
+      <c r="H88" s="1">
+        <v>218</v>
+      </c>
+      <c r="I88" s="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="1">
+        <v>700</v>
+      </c>
+      <c r="F89" s="1">
+        <v>748</v>
+      </c>
+      <c r="G89" s="1">
+        <v>795</v>
+      </c>
+      <c r="H89" s="1">
+        <v>653</v>
+      </c>
+      <c r="I89" s="1">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="1">
+        <v>463</v>
+      </c>
+      <c r="F90" s="1">
+        <v>515</v>
+      </c>
+      <c r="G90" s="1">
+        <v>567</v>
+      </c>
+      <c r="H90" s="1">
+        <v>460</v>
+      </c>
+      <c r="I90" s="1">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1701</v>
+      </c>
+      <c r="F91" s="1">
+        <v>1754</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1849</v>
+      </c>
+      <c r="H91" s="1">
+        <v>1518</v>
+      </c>
+      <c r="I91" s="1">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="1">
+        <v>998</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1511</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1698</v>
+      </c>
+      <c r="H92" s="1">
+        <v>1368</v>
+      </c>
+      <c r="I92" s="1">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" s="1">
+        <v>9</v>
+      </c>
+      <c r="F93" s="1">
+        <v>9</v>
+      </c>
+      <c r="G93" s="1">
+        <v>22</v>
+      </c>
+      <c r="H93" s="1">
+        <v>19</v>
+      </c>
+      <c r="I93" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="1">
+        <v>31</v>
+      </c>
+      <c r="F94" s="1">
+        <v>46</v>
+      </c>
+      <c r="G94" s="1">
+        <v>35</v>
+      </c>
+      <c r="H94" s="1">
+        <v>34</v>
+      </c>
+      <c r="I94" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E95" s="1">
+        <v>197</v>
+      </c>
+      <c r="F95" s="1">
+        <v>136</v>
+      </c>
+      <c r="G95" s="1">
+        <v>164</v>
+      </c>
+      <c r="H95" s="1">
+        <v>129</v>
+      </c>
+      <c r="I95" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="1">
+        <v>302</v>
+      </c>
+      <c r="F96" s="1">
+        <v>321</v>
+      </c>
+      <c r="G96" s="1">
+        <v>432</v>
+      </c>
+      <c r="H96" s="1">
+        <v>375</v>
+      </c>
+      <c r="I96" s="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="1">
+        <v>596</v>
+      </c>
+      <c r="F97" s="1">
+        <v>486</v>
+      </c>
+      <c r="G97" s="1">
+        <v>520</v>
+      </c>
+      <c r="H97" s="1">
+        <v>396</v>
+      </c>
+      <c r="I97" s="1">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="1">
+        <v>2077</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1609</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1816</v>
+      </c>
+      <c r="H98" s="1">
+        <v>1467</v>
+      </c>
+      <c r="I98" s="1">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="1">
+        <v>561</v>
+      </c>
+      <c r="F99" s="1">
+        <v>617</v>
+      </c>
+      <c r="G99" s="1">
+        <v>737</v>
+      </c>
+      <c r="H99" s="1">
+        <v>603</v>
+      </c>
+      <c r="I99" s="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="1">
+        <v>6</v>
+      </c>
+      <c r="F100" s="1">
+        <v>11</v>
+      </c>
+      <c r="G100" s="1">
+        <v>14</v>
+      </c>
+      <c r="H100" s="1">
+        <v>13</v>
+      </c>
+      <c r="I100" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="1">
+        <v>73</v>
+      </c>
+      <c r="F101" s="1">
+        <v>70</v>
+      </c>
+      <c r="G101" s="1">
+        <v>65</v>
+      </c>
+      <c r="H101" s="1">
+        <v>57</v>
+      </c>
+      <c r="I101" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="1">
+        <v>414</v>
+      </c>
+      <c r="F102" s="1">
+        <v>332</v>
+      </c>
+      <c r="G102" s="1">
+        <v>312</v>
+      </c>
+      <c r="H102" s="1">
+        <v>241</v>
+      </c>
+      <c r="I102" s="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103" s="1">
+        <v>555</v>
+      </c>
+      <c r="F103" s="1">
+        <v>537</v>
+      </c>
+      <c r="G103" s="1">
+        <v>690</v>
+      </c>
+      <c r="H103" s="1">
+        <v>571</v>
+      </c>
+      <c r="I103" s="1">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" s="1">
+        <v>978</v>
+      </c>
+      <c r="F104" s="1">
+        <v>816</v>
+      </c>
+      <c r="G104" s="1">
+        <v>612</v>
+      </c>
+      <c r="H104" s="1">
+        <v>496</v>
+      </c>
+      <c r="I104" s="1">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="1">
+        <v>3265</v>
+      </c>
+      <c r="F105" s="1">
+        <v>3258</v>
+      </c>
+      <c r="G105" s="1">
+        <v>2866</v>
+      </c>
+      <c r="H105" s="1">
+        <v>2437</v>
+      </c>
+      <c r="I105" s="1">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="1">
+        <v>884</v>
+      </c>
+      <c r="F106" s="1">
+        <v>1276</v>
+      </c>
+      <c r="G106" s="1">
+        <v>1762</v>
+      </c>
+      <c r="H106" s="1">
+        <v>1474</v>
+      </c>
+      <c r="I106" s="1">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" s="1">
+        <v>10</v>
+      </c>
+      <c r="F107" s="1">
+        <v>22</v>
+      </c>
+      <c r="G107" s="1">
+        <v>30</v>
+      </c>
+      <c r="H107" s="1">
+        <v>21</v>
+      </c>
+      <c r="I107" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" s="1">
+        <v>136</v>
+      </c>
+      <c r="F108" s="1">
+        <v>91</v>
+      </c>
+      <c r="G108" s="1">
+        <v>83</v>
+      </c>
+      <c r="H108" s="1">
+        <v>68</v>
+      </c>
+      <c r="I108" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" s="1">
+        <v>401</v>
+      </c>
+      <c r="F109" s="1">
+        <v>270</v>
+      </c>
+      <c r="G109" s="1">
+        <v>278</v>
+      </c>
+      <c r="H109" s="1">
+        <v>238</v>
+      </c>
+      <c r="I109" s="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="1">
+        <v>962</v>
+      </c>
+      <c r="F110" s="1">
+        <v>946</v>
+      </c>
+      <c r="G110" s="1">
+        <v>944</v>
+      </c>
+      <c r="H110" s="1">
+        <v>794</v>
+      </c>
+      <c r="I110" s="1">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="1">
+        <v>926</v>
+      </c>
+      <c r="F111" s="1">
+        <v>716</v>
+      </c>
+      <c r="G111" s="1">
+        <v>679</v>
+      </c>
+      <c r="H111" s="1">
+        <v>554</v>
+      </c>
+      <c r="I111" s="1">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="1">
+        <v>2123</v>
+      </c>
+      <c r="F112" s="1">
+        <v>1469</v>
+      </c>
+      <c r="G112" s="1">
+        <v>1339</v>
+      </c>
+      <c r="H112" s="1">
+        <v>1068</v>
+      </c>
+      <c r="I112" s="1">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="1">
+        <v>726</v>
+      </c>
+      <c r="F113" s="1">
+        <v>875</v>
+      </c>
+      <c r="G113" s="1">
+        <v>1236</v>
+      </c>
+      <c r="H113" s="1">
+        <v>956</v>
+      </c>
+      <c r="I113" s="1">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E114" s="1">
+        <v>2</v>
+      </c>
+      <c r="F114" s="1">
+        <v>5</v>
+      </c>
+      <c r="G114" s="1">
+        <v>1</v>
+      </c>
+      <c r="H114" s="1">
+        <v>1</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" s="1">
+        <v>8</v>
+      </c>
+      <c r="F115" s="1">
+        <v>7</v>
+      </c>
+      <c r="G115" s="1">
+        <v>12</v>
+      </c>
+      <c r="H115" s="1">
+        <v>12</v>
+      </c>
+      <c r="I115" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116" s="1">
+        <v>33</v>
+      </c>
+      <c r="F116" s="1">
+        <v>26</v>
+      </c>
+      <c r="G116" s="1">
+        <v>28</v>
+      </c>
+      <c r="H116" s="1">
+        <v>26</v>
+      </c>
+      <c r="I116" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117" s="1">
+        <v>78</v>
+      </c>
+      <c r="F117" s="1">
+        <v>114</v>
+      </c>
+      <c r="G117" s="1">
+        <v>100</v>
+      </c>
+      <c r="H117" s="1">
+        <v>83</v>
+      </c>
+      <c r="I117" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="1">
+        <v>204</v>
+      </c>
+      <c r="F118" s="1">
+        <v>173</v>
+      </c>
+      <c r="G118" s="1">
+        <v>181</v>
+      </c>
+      <c r="H118" s="1">
+        <v>145</v>
+      </c>
+      <c r="I118" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="1">
+        <v>473</v>
+      </c>
+      <c r="F119" s="1">
+        <v>582</v>
+      </c>
+      <c r="G119" s="1">
+        <v>631</v>
+      </c>
+      <c r="H119" s="1">
+        <v>532</v>
+      </c>
+      <c r="I119" s="1">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="1">
+        <v>68</v>
+      </c>
+      <c r="F120" s="1">
+        <v>91</v>
+      </c>
+      <c r="G120" s="1">
+        <v>113</v>
+      </c>
+      <c r="H120" s="1">
+        <v>87</v>
+      </c>
+      <c r="I120" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E121" s="1">
+        <v>2</v>
+      </c>
+      <c r="F121" s="1">
+        <v>2</v>
+      </c>
+      <c r="G121" s="1">
+        <v>2</v>
+      </c>
+      <c r="H121" s="1">
+        <v>2</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" s="1">
+        <v>32</v>
+      </c>
+      <c r="F122" s="1">
+        <v>21</v>
+      </c>
+      <c r="G122" s="1">
+        <v>30</v>
+      </c>
+      <c r="H122" s="1">
+        <v>26</v>
+      </c>
+      <c r="I122" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="1">
+        <v>44</v>
+      </c>
+      <c r="F123" s="1">
+        <v>38</v>
+      </c>
+      <c r="G123" s="1">
+        <v>48</v>
+      </c>
+      <c r="H123" s="1">
+        <v>40</v>
+      </c>
+      <c r="I123" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" s="1">
+        <v>66</v>
+      </c>
+      <c r="F124" s="1">
+        <v>94</v>
+      </c>
+      <c r="G124" s="1">
+        <v>104</v>
+      </c>
+      <c r="H124" s="1">
+        <v>92</v>
+      </c>
+      <c r="I124" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="1">
+        <v>366</v>
+      </c>
+      <c r="F125" s="1">
+        <v>226</v>
+      </c>
+      <c r="G125" s="1">
+        <v>259</v>
+      </c>
+      <c r="H125" s="1">
+        <v>206</v>
+      </c>
+      <c r="I125" s="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1075</v>
+      </c>
+      <c r="F126" s="1">
+        <v>941</v>
+      </c>
+      <c r="G126" s="1">
+        <v>1049</v>
+      </c>
+      <c r="H126" s="1">
+        <v>898</v>
+      </c>
+      <c r="I126" s="1">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="1">
+        <v>85</v>
+      </c>
+      <c r="F127" s="1">
+        <v>128</v>
+      </c>
+      <c r="G127" s="1">
+        <v>147</v>
+      </c>
+      <c r="H127" s="1">
+        <v>129</v>
+      </c>
+      <c r="I127" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E128" s="1">
+        <v>2</v>
+      </c>
+      <c r="F128" s="1">
+        <v>2</v>
+      </c>
+      <c r="G128" s="1">
+        <v>2</v>
+      </c>
+      <c r="H128" s="1">
+        <v>2</v>
+      </c>
+      <c r="I128" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" s="1">
+        <v>7</v>
+      </c>
+      <c r="F129" s="1">
+        <v>13</v>
+      </c>
+      <c r="G129" s="1">
+        <v>9</v>
+      </c>
+      <c r="H129" s="1">
+        <v>8</v>
+      </c>
+      <c r="I129" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" s="1">
+        <v>40</v>
+      </c>
+      <c r="F130" s="1">
+        <v>24</v>
+      </c>
+      <c r="G130" s="1">
+        <v>20</v>
+      </c>
+      <c r="H130" s="1">
+        <v>16</v>
+      </c>
+      <c r="I130" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131" s="1">
+        <v>53</v>
+      </c>
+      <c r="F131" s="1">
+        <v>81</v>
+      </c>
+      <c r="G131" s="1">
+        <v>50</v>
+      </c>
+      <c r="H131" s="1">
+        <v>47</v>
+      </c>
+      <c r="I131" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132" s="1">
+        <v>153</v>
+      </c>
+      <c r="F132" s="1">
+        <v>97</v>
+      </c>
+      <c r="G132" s="1">
+        <v>128</v>
+      </c>
+      <c r="H132" s="1">
+        <v>105</v>
+      </c>
+      <c r="I132" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="1">
+        <v>569</v>
+      </c>
+      <c r="F133" s="1">
+        <v>567</v>
+      </c>
+      <c r="G133" s="1">
+        <v>677</v>
+      </c>
+      <c r="H133" s="1">
+        <v>562</v>
+      </c>
+      <c r="I133" s="1">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="1">
+        <v>70</v>
+      </c>
+      <c r="F134" s="1">
+        <v>145</v>
+      </c>
+      <c r="G134" s="1">
+        <v>195</v>
+      </c>
+      <c r="H134" s="1">
+        <v>160</v>
+      </c>
+      <c r="I134" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E135" s="1">
+        <v>7</v>
+      </c>
+      <c r="F135" s="1">
+        <v>5</v>
+      </c>
+      <c r="G135" s="1">
+        <v>7</v>
+      </c>
+      <c r="H135" s="1">
+        <v>5</v>
+      </c>
+      <c r="I135" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E136" s="1">
+        <v>46</v>
+      </c>
+      <c r="F136" s="1">
+        <v>41</v>
+      </c>
+      <c r="G136" s="1">
+        <v>53</v>
+      </c>
+      <c r="H136" s="1">
+        <v>46</v>
+      </c>
+      <c r="I136" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137" s="1">
+        <v>203</v>
+      </c>
+      <c r="F137" s="1">
+        <v>193</v>
+      </c>
+      <c r="G137" s="1">
+        <v>138</v>
+      </c>
+      <c r="H137" s="1">
+        <v>111</v>
+      </c>
+      <c r="I137" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138" s="1">
+        <v>446</v>
+      </c>
+      <c r="F138" s="1">
+        <v>494</v>
+      </c>
+      <c r="G138" s="1">
+        <v>356</v>
+      </c>
+      <c r="H138" s="1">
+        <v>306</v>
+      </c>
+      <c r="I138" s="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="1">
+        <v>603</v>
+      </c>
+      <c r="F139" s="1">
+        <v>426</v>
+      </c>
+      <c r="G139" s="1">
+        <v>333</v>
+      </c>
+      <c r="H139" s="1">
+        <v>280</v>
+      </c>
+      <c r="I139" s="1">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" s="1">
+        <v>1779</v>
+      </c>
+      <c r="F140" s="1">
+        <v>2038</v>
+      </c>
+      <c r="G140" s="1">
+        <v>1794</v>
+      </c>
+      <c r="H140" s="1">
+        <v>1485</v>
+      </c>
+      <c r="I140" s="1">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="1">
+        <v>638</v>
+      </c>
+      <c r="F141" s="1">
+        <v>796</v>
+      </c>
+      <c r="G141" s="1">
+        <v>917</v>
+      </c>
+      <c r="H141" s="1">
+        <v>734</v>
+      </c>
+      <c r="I141" s="1">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E142" s="1">
+        <v>14</v>
+      </c>
+      <c r="F142" s="1">
+        <v>13</v>
+      </c>
+      <c r="G142" s="1">
+        <v>12</v>
+      </c>
+      <c r="H142" s="1">
+        <v>9</v>
+      </c>
+      <c r="I142" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E143" s="1">
+        <v>69</v>
+      </c>
+      <c r="F143" s="1">
+        <v>67</v>
+      </c>
+      <c r="G143" s="1">
+        <v>78</v>
+      </c>
+      <c r="H143" s="1">
+        <v>68</v>
+      </c>
+      <c r="I143" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E144" s="1">
+        <v>216</v>
+      </c>
+      <c r="F144" s="1">
+        <v>172</v>
+      </c>
+      <c r="G144" s="1">
+        <v>160</v>
+      </c>
+      <c r="H144" s="1">
+        <v>124</v>
+      </c>
+      <c r="I144" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E145" s="1">
+        <v>491</v>
+      </c>
+      <c r="F145" s="1">
+        <v>634</v>
+      </c>
+      <c r="G145" s="1">
+        <v>661</v>
+      </c>
+      <c r="H145" s="1">
+        <v>580</v>
+      </c>
+      <c r="I145" s="1">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="1">
+        <v>592</v>
+      </c>
+      <c r="F146" s="1">
+        <v>581</v>
+      </c>
+      <c r="G146" s="1">
+        <v>468</v>
+      </c>
+      <c r="H146" s="1">
+        <v>381</v>
+      </c>
+      <c r="I146" s="1">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1635</v>
+      </c>
+      <c r="F147" s="1">
+        <v>1362</v>
+      </c>
+      <c r="G147" s="1">
+        <v>1526</v>
+      </c>
+      <c r="H147" s="1">
+        <v>1199</v>
+      </c>
+      <c r="I147" s="1">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" s="1">
+        <v>534</v>
+      </c>
+      <c r="F148" s="1">
+        <v>674</v>
+      </c>
+      <c r="G148" s="1">
+        <v>682</v>
+      </c>
+      <c r="H148" s="1">
+        <v>532</v>
+      </c>
+      <c r="I148" s="1">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E149" s="1">
+        <v>4</v>
+      </c>
+      <c r="F149" s="1">
+        <v>4</v>
+      </c>
+      <c r="G149" s="1">
+        <v>5</v>
+      </c>
+      <c r="H149" s="1">
+        <v>4</v>
+      </c>
+      <c r="I149" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E150" s="1">
+        <v>25</v>
+      </c>
+      <c r="F150" s="1">
+        <v>24</v>
+      </c>
+      <c r="G150" s="1">
+        <v>17</v>
+      </c>
+      <c r="H150" s="1">
+        <v>15</v>
+      </c>
+      <c r="I150" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E151" s="1">
+        <v>89</v>
+      </c>
+      <c r="F151" s="1">
+        <v>89</v>
+      </c>
+      <c r="G151" s="1">
+        <v>89</v>
+      </c>
+      <c r="H151" s="1">
+        <v>75</v>
+      </c>
+      <c r="I151" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152" s="1">
+        <v>236</v>
+      </c>
+      <c r="F152" s="1">
+        <v>177</v>
+      </c>
+      <c r="G152" s="1">
+        <v>216</v>
+      </c>
+      <c r="H152" s="1">
+        <v>183</v>
+      </c>
+      <c r="I152" s="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" s="1">
+        <v>275</v>
+      </c>
+      <c r="F153" s="1">
+        <v>241</v>
+      </c>
+      <c r="G153" s="1">
+        <v>240</v>
+      </c>
+      <c r="H153" s="1">
+        <v>190</v>
+      </c>
+      <c r="I153" s="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" s="1">
+        <v>823</v>
+      </c>
+      <c r="F154" s="1">
+        <v>885</v>
+      </c>
+      <c r="G154" s="1">
+        <v>928</v>
+      </c>
+      <c r="H154" s="1">
+        <v>757</v>
+      </c>
+      <c r="I154" s="1">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155" s="1">
+        <v>388</v>
+      </c>
+      <c r="F155" s="1">
+        <v>474</v>
+      </c>
+      <c r="G155" s="1">
+        <v>594</v>
+      </c>
+      <c r="H155" s="1">
+        <v>497</v>
+      </c>
+      <c r="I155" s="1">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E156" s="1">
+        <v>2</v>
+      </c>
+      <c r="F156" s="1">
+        <v>2</v>
+      </c>
+      <c r="G156" s="1">
+        <v>4</v>
+      </c>
+      <c r="H156" s="1">
+        <v>4</v>
+      </c>
+      <c r="I156" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E157" s="1">
+        <v>36</v>
+      </c>
+      <c r="F157" s="1">
+        <v>25</v>
+      </c>
+      <c r="G157" s="1">
+        <v>31</v>
+      </c>
+      <c r="H157" s="1">
+        <v>24</v>
+      </c>
+      <c r="I157" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E158" s="1">
+        <v>47</v>
+      </c>
+      <c r="F158" s="1">
+        <v>45</v>
+      </c>
+      <c r="G158" s="1">
+        <v>35</v>
+      </c>
+      <c r="H158" s="1">
+        <v>31</v>
+      </c>
+      <c r="I158" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E159" s="1">
+        <v>153</v>
+      </c>
+      <c r="F159" s="1">
+        <v>131</v>
+      </c>
+      <c r="G159" s="1">
+        <v>122</v>
+      </c>
+      <c r="H159" s="1">
+        <v>111</v>
+      </c>
+      <c r="I159" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" s="1">
+        <v>187</v>
+      </c>
+      <c r="F160" s="1">
+        <v>174</v>
+      </c>
+      <c r="G160" s="1">
+        <v>188</v>
+      </c>
+      <c r="H160" s="1">
+        <v>147</v>
+      </c>
+      <c r="I160" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" s="1">
+        <v>1029</v>
+      </c>
+      <c r="F161" s="1">
+        <v>1034</v>
+      </c>
+      <c r="G161" s="1">
+        <v>882</v>
+      </c>
+      <c r="H161" s="1">
+        <v>725</v>
+      </c>
+      <c r="I161" s="1">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E162" s="1">
+        <v>179</v>
+      </c>
+      <c r="F162" s="1">
+        <v>241</v>
+      </c>
+      <c r="G162" s="1">
+        <v>219</v>
+      </c>
+      <c r="H162" s="1">
+        <v>185</v>
+      </c>
+      <c r="I162" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E163" s="1">
+        <v>3</v>
+      </c>
+      <c r="F163" s="1">
+        <v>3</v>
+      </c>
+      <c r="G163" s="1">
+        <v>4</v>
+      </c>
+      <c r="H163" s="1">
+        <v>3</v>
+      </c>
+      <c r="I163" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E164" s="1">
+        <v>61</v>
+      </c>
+      <c r="F164" s="1">
+        <v>53</v>
+      </c>
+      <c r="G164" s="1">
+        <v>58</v>
+      </c>
+      <c r="H164" s="1">
+        <v>50</v>
+      </c>
+      <c r="I164" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E165" s="1">
+        <v>106</v>
+      </c>
+      <c r="F165" s="1">
+        <v>90</v>
+      </c>
+      <c r="G165" s="1">
+        <v>89</v>
+      </c>
+      <c r="H165" s="1">
+        <v>74</v>
+      </c>
+      <c r="I165" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E166" s="1">
+        <v>163</v>
+      </c>
+      <c r="F166" s="1">
+        <v>208</v>
+      </c>
+      <c r="G166" s="1">
+        <v>227</v>
+      </c>
+      <c r="H166" s="1">
+        <v>185</v>
+      </c>
+      <c r="I166" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167" s="1">
+        <v>510</v>
+      </c>
+      <c r="F167" s="1">
+        <v>463</v>
+      </c>
+      <c r="G167" s="1">
+        <v>398</v>
+      </c>
+      <c r="H167" s="1">
+        <v>319</v>
+      </c>
+      <c r="I167" s="1">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" s="1">
+        <v>1953</v>
+      </c>
+      <c r="F168" s="1">
+        <v>1771</v>
+      </c>
+      <c r="G168" s="1">
+        <v>1931</v>
+      </c>
+      <c r="H168" s="1">
+        <v>1553</v>
+      </c>
+      <c r="I168" s="1">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" s="1">
+        <v>287</v>
+      </c>
+      <c r="F169" s="1">
+        <v>365</v>
+      </c>
+      <c r="G169" s="1">
+        <v>433</v>
+      </c>
+      <c r="H169" s="1">
+        <v>344</v>
+      </c>
+      <c r="I169" s="1">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E170" s="1">
+        <v>17</v>
+      </c>
+      <c r="F170" s="1">
+        <v>18</v>
+      </c>
+      <c r="G170" s="1">
+        <v>30</v>
+      </c>
+      <c r="H170" s="1">
+        <v>26</v>
+      </c>
+      <c r="I170" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E171" s="1">
+        <v>38</v>
+      </c>
+      <c r="F171" s="1">
+        <v>38</v>
+      </c>
+      <c r="G171" s="1">
+        <v>19</v>
+      </c>
+      <c r="H171" s="1">
+        <v>16</v>
+      </c>
+      <c r="I171" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E172" s="1">
+        <v>283</v>
+      </c>
+      <c r="F172" s="1">
+        <v>244</v>
+      </c>
+      <c r="G172" s="1">
+        <v>184</v>
+      </c>
+      <c r="H172" s="1">
+        <v>155</v>
+      </c>
+      <c r="I172" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E173" s="1">
+        <v>609</v>
+      </c>
+      <c r="F173" s="1">
+        <v>679</v>
+      </c>
+      <c r="G173" s="1">
+        <v>575</v>
+      </c>
+      <c r="H173" s="1">
+        <v>484</v>
+      </c>
+      <c r="I173" s="1">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E174" s="1">
+        <v>319</v>
+      </c>
+      <c r="F174" s="1">
+        <v>325</v>
+      </c>
+      <c r="G174" s="1">
+        <v>221</v>
+      </c>
+      <c r="H174" s="1">
+        <v>187</v>
+      </c>
+      <c r="I174" s="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" s="1">
+        <v>859</v>
+      </c>
+      <c r="F175" s="1">
+        <v>888</v>
+      </c>
+      <c r="G175" s="1">
+        <v>879</v>
+      </c>
+      <c r="H175" s="1">
+        <v>756</v>
+      </c>
+      <c r="I175" s="1">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E176" s="1">
+        <v>491</v>
+      </c>
+      <c r="F176" s="1">
+        <v>648</v>
+      </c>
+      <c r="G176" s="1">
+        <v>759</v>
+      </c>
+      <c r="H176" s="1">
+        <v>637</v>
+      </c>
+      <c r="I176" s="1">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E177" s="1">
+        <v>4</v>
+      </c>
+      <c r="F177" s="1">
+        <v>3</v>
+      </c>
+      <c r="G177" s="1">
+        <v>3</v>
+      </c>
+      <c r="H177" s="1">
+        <v>3</v>
+      </c>
+      <c r="I177" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E178" s="1">
+        <v>42</v>
+      </c>
+      <c r="F178" s="1">
+        <v>39</v>
+      </c>
+      <c r="G178" s="1">
+        <v>45</v>
+      </c>
+      <c r="H178" s="1">
+        <v>38</v>
+      </c>
+      <c r="I178" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E179" s="1">
+        <v>179</v>
+      </c>
+      <c r="F179" s="1">
+        <v>147</v>
+      </c>
+      <c r="G179" s="1">
+        <v>168</v>
+      </c>
+      <c r="H179" s="1">
+        <v>133</v>
+      </c>
+      <c r="I179" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E180" s="1">
+        <v>299</v>
+      </c>
+      <c r="F180" s="1">
+        <v>355</v>
+      </c>
+      <c r="G180" s="1">
+        <v>429</v>
+      </c>
+      <c r="H180" s="1">
+        <v>374</v>
+      </c>
+      <c r="I180" s="1">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181" s="1">
+        <v>637</v>
+      </c>
+      <c r="F181" s="1">
+        <v>535</v>
+      </c>
+      <c r="G181" s="1">
+        <v>704</v>
+      </c>
+      <c r="H181" s="1">
+        <v>574</v>
+      </c>
+      <c r="I181" s="1">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182" s="1">
+        <v>1572</v>
+      </c>
+      <c r="F182" s="1">
+        <v>1730</v>
+      </c>
+      <c r="G182" s="1">
+        <v>1798</v>
+      </c>
+      <c r="H182" s="1">
+        <v>1490</v>
+      </c>
+      <c r="I182" s="1">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E183" s="1">
+        <v>456</v>
+      </c>
+      <c r="F183" s="1">
+        <v>554</v>
+      </c>
+      <c r="G183" s="1">
+        <v>683</v>
+      </c>
+      <c r="H183" s="1">
+        <v>566</v>
+      </c>
+      <c r="I183" s="1">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E184" s="1">
+        <v>1</v>
+      </c>
+      <c r="F184" s="1">
+        <v>2</v>
+      </c>
+      <c r="G184" s="1">
+        <v>5</v>
+      </c>
+      <c r="H184" s="1">
+        <v>5</v>
+      </c>
+      <c r="I184" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E185" s="1">
+        <v>19</v>
+      </c>
+      <c r="F185" s="1">
+        <v>22</v>
+      </c>
+      <c r="G185" s="1">
+        <v>24</v>
+      </c>
+      <c r="H185" s="1">
+        <v>22</v>
+      </c>
+      <c r="I185" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E186" s="1">
+        <v>68</v>
+      </c>
+      <c r="F186" s="1">
+        <v>63</v>
+      </c>
+      <c r="G186" s="1">
+        <v>61</v>
+      </c>
+      <c r="H186" s="1">
+        <v>48</v>
+      </c>
+      <c r="I186" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E187" s="1">
+        <v>122</v>
+      </c>
+      <c r="F187" s="1">
+        <v>144</v>
+      </c>
+      <c r="G187" s="1">
+        <v>194</v>
+      </c>
+      <c r="H187" s="1">
+        <v>173</v>
+      </c>
+      <c r="I187" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E188" s="1">
+        <v>708</v>
+      </c>
+      <c r="F188" s="1">
+        <v>571</v>
+      </c>
+      <c r="G188" s="1">
+        <v>548</v>
+      </c>
+      <c r="H188" s="1">
+        <v>440</v>
+      </c>
+      <c r="I188" s="1">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E189" s="1">
+        <v>1445</v>
+      </c>
+      <c r="F189" s="1">
+        <v>1197</v>
+      </c>
+      <c r="G189" s="1">
+        <v>1618</v>
+      </c>
+      <c r="H189" s="1">
+        <v>1327</v>
+      </c>
+      <c r="I189" s="1">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E190" s="1">
+        <v>168</v>
+      </c>
+      <c r="F190" s="1">
+        <v>263</v>
+      </c>
+      <c r="G190" s="1">
+        <v>303</v>
+      </c>
+      <c r="H190" s="1">
+        <v>248</v>
+      </c>
+      <c r="I190" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E191" s="1">
+        <v>1</v>
+      </c>
+      <c r="F191" s="1">
+        <v>0</v>
+      </c>
+      <c r="G191" s="1">
+        <v>4</v>
+      </c>
+      <c r="H191" s="1">
+        <v>4</v>
+      </c>
+      <c r="I191" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E192" s="1">
+        <v>24</v>
+      </c>
+      <c r="F192" s="1">
+        <v>28</v>
+      </c>
+      <c r="G192" s="1">
+        <v>24</v>
+      </c>
+      <c r="H192" s="1">
+        <v>23</v>
+      </c>
+      <c r="I192" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E193" s="1">
+        <v>141</v>
+      </c>
+      <c r="F193" s="1">
+        <v>85</v>
+      </c>
+      <c r="G193" s="1">
+        <v>114</v>
+      </c>
+      <c r="H193" s="1">
+        <v>83</v>
+      </c>
+      <c r="I193" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E194" s="1">
+        <v>135</v>
+      </c>
+      <c r="F194" s="1">
+        <v>95</v>
+      </c>
+      <c r="G194" s="1">
+        <v>153</v>
+      </c>
+      <c r="H194" s="1">
+        <v>125</v>
+      </c>
+      <c r="I194" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E195" s="1">
+        <v>219</v>
+      </c>
+      <c r="F195" s="1">
+        <v>282</v>
+      </c>
+      <c r="G195" s="1">
+        <v>308</v>
+      </c>
+      <c r="H195" s="1">
+        <v>262</v>
+      </c>
+      <c r="I195" s="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196" s="1">
+        <v>1706</v>
+      </c>
+      <c r="F196" s="1">
+        <v>847</v>
+      </c>
+      <c r="G196" s="1">
+        <v>1021</v>
+      </c>
+      <c r="H196" s="1">
+        <v>770</v>
+      </c>
+      <c r="I196" s="1">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E197" s="1">
+        <v>118</v>
+      </c>
+      <c r="F197" s="1">
+        <v>102</v>
+      </c>
+      <c r="G197" s="1">
+        <v>159</v>
+      </c>
+      <c r="H197" s="1">
+        <v>129</v>
+      </c>
+      <c r="I197" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E198" s="1">
+        <v>145</v>
+      </c>
+      <c r="F198" s="1">
+        <v>199</v>
+      </c>
+      <c r="G198" s="1">
+        <v>281</v>
+      </c>
+      <c r="H198" s="1">
+        <v>236</v>
+      </c>
+      <c r="I198" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E199" s="1">
+        <v>881</v>
+      </c>
+      <c r="F199" s="1">
+        <v>796</v>
+      </c>
+      <c r="G199" s="1">
+        <v>809</v>
+      </c>
+      <c r="H199" s="1">
+        <v>695</v>
+      </c>
+      <c r="I199" s="1">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E200" s="1">
+        <v>4300</v>
+      </c>
+      <c r="F200" s="1">
+        <v>3486</v>
+      </c>
+      <c r="G200" s="1">
+        <v>3237</v>
+      </c>
+      <c r="H200" s="1">
+        <v>2619</v>
+      </c>
+      <c r="I200" s="1">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E201" s="1">
+        <v>8408</v>
+      </c>
+      <c r="F201" s="1">
+        <v>9034</v>
+      </c>
+      <c r="G201" s="1">
+        <v>9416</v>
+      </c>
+      <c r="H201" s="1">
+        <v>8017</v>
+      </c>
+      <c r="I201" s="1">
+        <v>9077</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E202" s="1">
+        <v>9695</v>
+      </c>
+      <c r="F202" s="1">
+        <v>8113</v>
+      </c>
+      <c r="G202" s="1">
+        <v>7737</v>
+      </c>
+      <c r="H202" s="1">
+        <v>6262</v>
+      </c>
+      <c r="I202" s="1">
+        <v>8584</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" s="1">
+        <v>31277</v>
+      </c>
+      <c r="F203" s="1">
+        <v>28552</v>
+      </c>
+      <c r="G203" s="1">
+        <v>29038</v>
+      </c>
+      <c r="H203" s="1">
+        <v>23802</v>
+      </c>
+      <c r="I203" s="1">
+        <v>27140</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E204" s="1">
+        <v>9780</v>
+      </c>
+      <c r="F204" s="1">
+        <v>12562</v>
+      </c>
+      <c r="G204" s="1">
+        <v>15591</v>
+      </c>
+      <c r="H204" s="1">
+        <v>12745</v>
+      </c>
+      <c r="I204" s="1">
+        <v>12802</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>